--- a/usersBinnacle.xlsx
+++ b/usersBinnacle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\git\TechnoNizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D3ACC7-48CD-499A-B81B-BA680B3CA78E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA775A-0DB3-468A-AA72-6BAA6DB1BB92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{97146337-B327-4354-9D83-03494D17B0F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,54 @@
   </si>
   <si>
     <t>usuario intento restablecer contraseña</t>
+  </si>
+  <si>
+    <t>contesto mal las preguntas de seguridad</t>
+  </si>
+  <si>
+    <t>agrego las preguntas de seguridad</t>
+  </si>
+  <si>
+    <t>elimino las preguntas de seguridad</t>
+  </si>
+  <si>
+    <t>agrego el contacto</t>
+  </si>
+  <si>
+    <t>elimino el contacto</t>
+  </si>
+  <si>
+    <t>iniciar sesión en modo administrativo</t>
+  </si>
+  <si>
+    <t>admin actualiza foto</t>
+  </si>
+  <si>
+    <t>admin aztualiza apellidos</t>
+  </si>
+  <si>
+    <t>admin actualiza nombres</t>
+  </si>
+  <si>
+    <t>admin actualiza correo</t>
+  </si>
+  <si>
+    <t>admin actualiza fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>admin actualiza genero</t>
+  </si>
+  <si>
+    <t>admin actualiza condicion</t>
+  </si>
+  <si>
+    <t>admin actualiza contraseña</t>
+  </si>
+  <si>
+    <t>admin inserta keygen</t>
+  </si>
+  <si>
+    <t>admin  cambio keygen</t>
   </si>
 </sst>
 </file>
@@ -151,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{035AAEA8-4369-4474-8A69-20748194E41A}" name="Tabla1" displayName="Tabla1" ref="B4:C22" totalsRowShown="0">
-  <autoFilter ref="B4:C22" xr:uid="{FABC4ED2-FEE4-421C-A0D2-DCF7D40628C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{035AAEA8-4369-4474-8A69-20748194E41A}" name="Tabla1" displayName="Tabla1" ref="B4:C40" totalsRowShown="0">
+  <autoFilter ref="B4:C40" xr:uid="{FABC4ED2-FEE4-421C-A0D2-DCF7D40628C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E2394A70-E8D6-4713-8D5F-EA2B716EC7F8}" name="ID" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E7AF858E-3A7B-4E21-9178-C7CE371A5EF7}" name="Acción" dataDxfId="0"/>
@@ -458,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55936807-51AD-4965-A171-4308C2519239}">
-  <dimension ref="B4:E22"/>
+  <dimension ref="B4:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +668,147 @@
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/usersBinnacle.xlsx
+++ b/usersBinnacle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\git\TechnoNizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA775A-0DB3-468A-AA72-6BAA6DB1BB92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD887CBD-8415-4E1A-94D4-CE0B1F5DA020}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{97146337-B327-4354-9D83-03494D17B0F6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>admin  cambio keygen</t>
+  </si>
+  <si>
+    <t>admin elimino keygen</t>
+  </si>
+  <si>
+    <t>admin agrego preguntas de seguridad</t>
+  </si>
+  <si>
+    <t>admin elimino preguntas de seguridad</t>
   </si>
 </sst>
 </file>
@@ -199,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{035AAEA8-4369-4474-8A69-20748194E41A}" name="Tabla1" displayName="Tabla1" ref="B4:C40" totalsRowShown="0">
-  <autoFilter ref="B4:C40" xr:uid="{FABC4ED2-FEE4-421C-A0D2-DCF7D40628C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{035AAEA8-4369-4474-8A69-20748194E41A}" name="Tabla1" displayName="Tabla1" ref="B4:C56" totalsRowShown="0">
+  <autoFilter ref="B4:C56" xr:uid="{FABC4ED2-FEE4-421C-A0D2-DCF7D40628C6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E2394A70-E8D6-4713-8D5F-EA2B716EC7F8}" name="ID" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E7AF858E-3A7B-4E21-9178-C7CE371A5EF7}" name="Acción" dataDxfId="0"/>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55936807-51AD-4965-A171-4308C2519239}">
-  <dimension ref="B4:E40"/>
+  <dimension ref="B4:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,19 +805,121 @@
       <c r="B38" s="1">
         <v>33</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>34</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>35</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
